--- a/data/raw/interaction_matrices/willem_2012/0_20_60/school.xlsx
+++ b/data/raw/interaction_matrices/willem_2012/0_20_60/school.xlsx
@@ -56,12 +56,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -77,6 +76,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,12 +126,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -147,72 +156,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>5.99311572733904</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.780242278749466</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0128484799825102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.283711083758412</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.446400953928779</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.00594344163096105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.0113317382264191</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.0144157074408798</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -230,72 +236,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>3.10242616262112</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.24833717398237</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.00724357542521475</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.0903001678926742</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.0821909569289303</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.0014127878216579</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.00638848335784383</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.00342669065797906</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -313,72 +316,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>0.504891738740753</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.100216018796439</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.036440469937442</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.0419409081347113</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.000428190153813409</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>0.00103856727628724</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -396,72 +396,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1.19393025551861</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.198165039603362</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.00104551832088449</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.0720566158488716</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.091462785767455</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.000428190153813409</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.000922096616822812</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.00103856727628724</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -479,72 +476,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>3.88840589439402</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.319423811354599</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.0049324341864101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.116148635066154</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.266670518053095</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.00551525147714764</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.00435016850985668</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.0133771401645925</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -562,72 +556,69 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>2.11473425468539</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.134947294852721</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.00402408384838208</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0.0490694292217726</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.0622228119142203</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.00354904742297136</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
